--- a/top30_cryptos.xlsx
+++ b/top30_cryptos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tong\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tong\teaching\fin7047\2025spr\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2220E24-8D79-4A81-A2A2-EEDAE3AF7669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D4C68F8-A49D-4E05-A104-60AEC58E2F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="345" windowWidth="16170" windowHeight="10200" xr2:uid="{47F06EA0-8980-4B12-89A3-8B843E30B23E}"/>
+    <workbookView xWindow="2340" yWindow="930" windowWidth="16170" windowHeight="15270" xr2:uid="{47F06EA0-8980-4B12-89A3-8B843E30B23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>BTC</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>ICP</t>
+  </si>
+  <si>
+    <t>Symbol</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38570018-9160-4B70-BB54-EFF62C40B339}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,152 +493,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
